--- a/pcxzf/pcxzf/wangshun/部门工作.xlsx
+++ b/pcxzf/pcxzf/wangshun/部门工作.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D75"/>
+  <dimension ref="A1:D77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,188 +424,184 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>县农业农村局：四举措扎实抓好动物春防工作</t>
+          <t>平昌县开展第29个全国“爱眼日”宣传活动</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>2024-04-29</t>
+          <t>2024-06-06</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>平昌县农业农村局</t>
+          <t>平昌县卫生健康局</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>向星桦  曹玲玲</t>
+          <t>平昌县卫生健康局</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>县公共资源交易服务中心：全县公务用车维修保养服务完成框架协议采购</t>
+          <t>平昌县双桥水库工程竣工移民安置终验工作顺利通过</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-04-28</t>
+          <t>2024-06-06</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>平昌县公共资源交易服务中心</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>赵淼</t>
-        </is>
-      </c>
+          <t>平昌县水利局</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>县综合行政执法局：紧盯行业重点领域  务实工作举措  筑牢安全生产防线</t>
+          <t>平昌县开设“惠企政策服务专窗”  打通服务企业“最后一公里”</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2024-04-28</t>
+          <t>2024-06-05</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>平昌县综合行政执法局</t>
+          <t>平昌县行政审批和数据局</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>赵志军</t>
+          <t>陈明霞</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>县市场监督管理局：多举措开展2024年全国知识产权宣传周活动</t>
+          <t>县人社局：着力实施“六双”工程聚力推动高质量发展</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2024-04-26</t>
+          <t>2024-06-05</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>平昌县市场监督管理局</t>
+          <t>平昌县人力资源和社会保障局</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>平昌县市场监督管理局</t>
+          <t>陈锦</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>县司法局：三个坚持，绘就护航经济社会发展“法治画卷”</t>
+          <t>平昌县“税惠联动”助力退役军人走好创业就业路</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024-04-26</t>
+          <t>2024-06-04</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>平昌县司法局</t>
+          <t>平昌县退役军人事务局</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>邢文军</t>
+          <t>王涛</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>县农业农村局：“三专”推进行业安全生产工作走深走实</t>
+          <t>县交运局：公交线路延伸“一小步”，群众出行跨越“一大步”</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2024-04-26</t>
+          <t>2024-06-04</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>平昌县农业农村局</t>
+          <t>平昌县交通运输局</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>朱开敏、徐勇</t>
+          <t>魏竹梅</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>平昌县开展第38个“全国儿童预防接种日”宣传活动</t>
+          <t>县招商局：多级联动助企纾困</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2024-04-25</t>
+          <t>2024-06-03</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>平昌县卫生健康局</t>
+          <t>平昌县招商局</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>平昌县卫生健康局</t>
+          <t>岳奇</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>县市场监督管理局：强化白酒品质监管  守住质量安全底线</t>
+          <t>县委党史办：用好红色资源，讲好红色故事</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2024-04-25</t>
+          <t>2024-06-03</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>平昌县市场监督管理局</t>
+          <t>平昌县党史办</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>平昌县市场监督管理局</t>
+          <t>县委党史研究室</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>县交通运输局：念好执法改革“三字经”  奏响规范化建设“协奏曲”</t>
+          <t>巴中市交通运输局、平昌县人民政府开展2024年防汛抢险暨地质灾害综合应急演练</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2024-04-24</t>
+          <t>2024-05-31</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -615,565 +611,565 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>唐耀宗</t>
+          <t>何家溢</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>县自然资源和规划局：十日攻坚  吹响地灾避险搬迁“冲锋号”</t>
+          <t>县水利局：以山坪塘整治为抓手 助推乡村振兴迈大步</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2024-04-24</t>
+          <t>2024-05-31</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>平昌县自然资源和规划局</t>
+          <t>平昌县水利局</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>唐通鑫</t>
+          <t>李宣</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>县水利局：加强业务培训 提升工作质效</t>
+          <t>平昌县举行第十一届中小学生艺术节文艺汇演</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2024-04-24</t>
+          <t>2024-05-29</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>县水利局</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
+          <t>平昌县教育科技局</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>王超</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>县自然资源和规划局：“多措并举”跑出土地整治项目加速度</t>
+          <t>平昌县市场监督管理局：开展儿童学生用品质量安全专项检查</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2024-04-23</t>
+          <t>2024-05-29</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>平昌县自然资源和规划局</t>
+          <t>平昌县市场监督管理局</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>杨道勇</t>
+          <t>平昌县市场监督管理局</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>县综合行政执法局：营造“三个环境”助推营商环境优化</t>
+          <t>平昌县交通运输局：扎实推动“路政宣传月”活动走深走实</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024-04-23</t>
+          <t>2024-05-28</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>平昌县综合行政执法局</t>
+          <t>平昌县交通运输局</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>唐英</t>
+          <t>唐耀宗</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>县水利局：扎实开展水旱灾害防御汛前自查</t>
+          <t>干部“微课堂” 发挥“大效能”</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2024-04-23</t>
+          <t>2024-05-28</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>平昌县水利局</t>
+          <t>平昌县行政审批和数据局</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>李怀明</t>
+          <t>刘谦</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>县司法局：提升公共法律服务质效  赋能乡村振兴</t>
+          <t>县审计局：筑牢保密防线 守护家国之安</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2024-04-22</t>
+          <t>2024-05-27</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>平昌县司法局</t>
+          <t>平昌县审计局</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>邢文军   胡秀娟</t>
+          <t>夏欣奕</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2024年一季度公共资源交易数据</t>
+          <t>县教育科技局：组织开展学校“一校一策”县级评比</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2024-04-22</t>
+          <t>2024-05-27</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>平昌县公共资源交易服务中心</t>
+          <t>平昌县教育科技局</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>刘平</t>
+          <t>王超  丁波</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>平昌县开展第30个全国肿瘤防治宣传周宣传活动</t>
+          <t>平昌白酒情醉泉州绽放魅力</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2024-04-22</t>
+          <t>2024-05-27</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>平昌县卫生健康局</t>
+          <t>平昌县商务局</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>平昌县卫生健康局</t>
+          <t>沈郑</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>中共平昌县委党史研究室 以“三举措”推动平昌党史工作高质量发展</t>
+          <t>县交运局：扎实推进道路货运企业“升规入统”</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2024-04-22</t>
+          <t>2024-05-24</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>平昌县党史办</t>
+          <t>平昌县交通运输局</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>县委党史研究室</t>
+          <t>魏川东</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>县财政局：组织开展新《农村集体经济组织新会计制度》培训</t>
+          <t>县林业局：聚“椒”提质增效</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2024-04-20</t>
+          <t>2024-05-23</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>平昌县财政局</t>
+          <t>平昌县林业局</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>赵鹏林</t>
+          <t>曾乐琼</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>“预见”健康|春季传染病防控健康宣教进校园</t>
+          <t>平昌县举行“校园防欺凌”专题法治宣讲活动</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2024-04-19</t>
+          <t>2024-05-23</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>平昌县卫生健康局</t>
+          <t>平昌县民政局</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>岳莉君</t>
+          <t>沈媛媛</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>县市场监督管理局：强化食用农产品抽检  确保节日食品安全</t>
+          <t>县统计局：狠抓关键环节为统计队伍“提神补钙”</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2024-04-19</t>
+          <t>2024-05-23</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>平昌县市场监督管理局</t>
+          <t>平昌县统计局</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>平昌县市场监督管理局</t>
+          <t>刘华平</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>平昌县扎实开展河长制及水功能区水质监测</t>
+          <t>县医保局：“加减乘除”做好医保政务服务</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2024-04-19</t>
+          <t>2024-05-23</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>巴中市平昌生态环境局</t>
+          <t>平昌县医疗保障局</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>孙丽</t>
+          <t>办公室</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>县司法局：四个加强公务用车管理  确保“车轮上的安全”</t>
+          <t>县卫健局：“一号管三天”  医疗惠民举措再上新</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2024-04-19</t>
+          <t>2024-05-22</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>平昌县司法局</t>
+          <t>平昌县卫生健康局</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>邢文军</t>
+          <t>县融媒体中心 张书浩</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>县水利局：“三强化”筑牢网络与信息安全防护墙</t>
+          <t>县司法局：“法律明白人”夯实法治基础</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2024-04-18</t>
+          <t>2024-05-21</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>平昌县水利局</t>
+          <t>平昌县司法局</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>水利局办公室</t>
+          <t>何俊</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>护航农资下乡   助力稳产增收</t>
+          <t>县市场监督管理局：开展“知识产权服务万里行”进企业活动</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2024-04-18</t>
+          <t>2024-05-21</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>平昌县农业农村局</t>
+          <t>平昌县市场监督管理局</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>何江、廖小宁</t>
+          <t>平昌县市场监督管理局</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>平昌县开展垃圾分类文明实践活动</t>
+          <t>平昌县开展“温暖童心 守护未来”爱心奶粉捐赠发放活动</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2024-04-18</t>
+          <t>2024-05-21</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>平昌县综合行政执法局</t>
+          <t>平昌县民政局</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>黑日友拉</t>
+          <t>王琳</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>平昌水环境质量持续改善</t>
+          <t>县供销社：以新质生产力助推茶产业全面振兴</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2024-04-16</t>
+          <t>2024-05-21</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>巴中市平昌生态环境局</t>
+          <t>平昌县供销合作社联合社</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>陈红</t>
+          <t>何秀平</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>县司法局：三举措推进矛盾纠纷化解</t>
+          <t>平昌县举办“蜀结良缘·新风相伴”婚姻登记集体颁证仪式暨文明婚俗宣教活动</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2024-04-17</t>
+          <t>2024-05-20</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>平昌县司法局</t>
+          <t>平昌县民政局</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>何俊</t>
+          <t>李金谕</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>县司法局：筑牢安全防线，推进平安机关建设</t>
+          <t>四川新闻联播｜下沉基层 医疗“组团式”帮扶见实效</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2024-04-16</t>
+          <t>2024-05-20</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>平昌县司法局</t>
+          <t>平昌县卫生健康局</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>张洪双</t>
+          <t>川观新闻</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>中共平昌县委党史研究室 “三举措”抓好《中国共产党纪律处分条例》贯彻落实</t>
+          <t>县司法局：一二三四工作法推动城乡环境治理走深走实</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2024-04-18</t>
+          <t>2024-05-17</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>平昌县党史办</t>
+          <t>平昌县司法局</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>县委党史研究室</t>
+          <t>邢文军</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2024年平昌县1-2月经济运行情况</t>
+          <t>平昌县双桥水库顺利完成大坝安全评价工作</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2024-04-16</t>
+          <t>2024-05-17</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>平昌县统计局</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>鲜荣天</t>
-        </is>
-      </c>
+          <t>平昌县水利局</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>县公路养护管理段开展消防知识培训暨消防应急演练</t>
+          <t>县水利局：多措并举强宣传  节水意识入人心</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2024-04-12</t>
+          <t>2024-05-16</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>平昌县交通运输局</t>
+          <t>平昌县水利局</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>李成志</t>
+          <t>屈癸宏</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>县农业农村局：严厉打击交界水域涉渔违法行为 切实守护共管水域生态防线</t>
+          <t>县公安局：持续开展“四车”专项整治行动</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2024-04-11</t>
+          <t>2024-05-16</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>平昌县农业农村局</t>
+          <t>平昌县公安局</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>平昌县水产渔政局</t>
+          <t>平昌县公安局</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>平昌生态环境局：“三举措”提升加油站环境管理水平</t>
+          <t>“开办餐饮一件事”“开办运输企业一件事”在平昌县落地开花</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2024-04-11</t>
+          <t>2024-05-16</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>巴中市平昌生态环境局</t>
+          <t>平昌县行政审批和数据局</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>李雪梅</t>
+          <t>李吉林</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>县交运局：路域整治再发力 公路环境提“新颜”</t>
+          <t>平昌县首个“开办运输企业一件事”办理成功</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2024-04-11</t>
+          <t>2024-05-15</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1183,598 +1179,551 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>曾欣</t>
+          <t>李颖丽</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>平昌县救助国家二级保护动物雕鸮一只</t>
+          <t>县示范幼儿园举行“义卖cos秀、畅享好食光”校园义卖活动</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2024-04-11</t>
+          <t>2024-05-14</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>平昌县林业局</t>
+          <t>平昌县示范幼儿园</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>谢权  杨洋</t>
+          <t>王丽娟</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>县委党史研究室：开展“缅怀革命先烈 传承红色基因”党史宣教活动</t>
+          <t>以爱之名 护佑健康 ‖ 平昌县卫生健康系统开展2024年5·12国际护士节系列
+活动</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2024-04-10</t>
+          <t>2024-05-13</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>平昌县党史办</t>
+          <t>平昌县卫生健康局</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>县委党史研究室</t>
+          <t>平昌县卫生健康局</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>平昌县推进“四好农村路”高质量发展  铺就乡村振兴康庄大道</t>
+          <t>县林业局：厚植绿水青山民生福祉 赋能新质生产力</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2024-04-10</t>
+          <t>2024-05-13</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>平昌县交通运输局</t>
+          <t>平昌县林业局</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>唐依曼</t>
+          <t>曾乐琼</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>县司法局：法治宣传进寺庙  共驻共建促和谐</t>
+          <t>县粮储中心：全面完成社会粮油供需平衡调查</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2024-04-10</t>
+          <t>2024-05-13</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>平昌县司法局</t>
+          <t>平昌县粮食和物资储备中心</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>董凡</t>
+          <t>平昌县粮食和物资储备中心</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>县综合行政执法局：大环境大提升  扎实助推城市管理新发展</t>
+          <t>县自然资源和规划局：开展“5·12防灾减灾日”宣传活动</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2024-04-10</t>
+          <t>2024-05-13</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>平昌县综合行政执法局</t>
+          <t>平昌县自然资源和规划局</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>李佳玲</t>
+          <t>何明国</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>平昌县2024年3月环境空气质量优良率100%</t>
+          <t>县交运局“三聚焦”推动运输领域信访投诉办理提质增效</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2024-04-09</t>
+          <t>2024-05-11</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>巴中市平昌生态环境局</t>
+          <t>平昌县交通运输局</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>向颖</t>
+          <t>魏川东</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>县司法局：多措并举着力筑牢网络安全防火墙</t>
+          <t>平昌县高位推动卫生健康事业发展“出实招”</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2024-04-09</t>
+          <t>2024-05-11</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>平昌县司法局</t>
+          <t>平昌县卫生健康局</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>邢文军</t>
+          <t>吴上游</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>县教科体局：分层分类开办干部职工微讲堂</t>
+          <t>县综合行政执法局：夯实防汛“安全堤” 打好备汛“主动战”</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2024-04-09</t>
+          <t>2024-05-11</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>平昌县教育科技和体育局</t>
+          <t>平昌县综合行政执法局</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>朱兴国</t>
+          <t>崔宝平</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>平昌县“四举措”扎实做好困境儿童和残疾人两项补贴对象年审工作</t>
+          <t>县自然资源和规划局：持续发力 为房地产发展再添新作为</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2024-04-08</t>
+          <t>2024-05-11</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>平昌县民政局</t>
+          <t>平昌县自然资源和规划局</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>孙蓉</t>
+          <t>袁健</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>一季度，平昌县公证和法律援助事业扎实开展</t>
+          <t>平昌县：做优基层政务服务  助推县域乡村振兴</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2024-04-07</t>
+          <t>2024-05-11</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>平昌县司法局</t>
+          <t>平昌县行政审批和数据局</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>邢文军</t>
+          <t>李飞</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>平昌交通执法：扎实开展“清明”节前运输市场集中整治</t>
+          <t>传承瑰宝 弘扬国粹 ‖ 平昌县中医医院开展中医药文化进校园活动</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2024-04-03</t>
+          <t>2024-05-11</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>平昌县交通运输局</t>
+          <t>平昌县卫生健康局</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>唐耀宗</t>
+          <t>平昌县卫生健康局</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>县综合行政执法局：加强户外广告治理 守护城市“安全”与“颜值”</t>
+          <t>平昌县供销社“五重”创市县双优</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2024-04-03</t>
+          <t>2024-05-09</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>平昌县综合行政执法局</t>
+          <t>平昌县供销合作社联合社</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>雷浩彬</t>
+          <t>何秀平</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>平昌县自然资源和规划局：打好地灾防治主动仗，筑牢人民安全防护墙</t>
+          <t>县水利局：2024-2030年水土保持项目纳入项目库</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2024-04-03</t>
+          <t>2024-05-08</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>平昌县自然资源和规划局</t>
+          <t>平昌县水利局</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>袁健</t>
+          <t>何鹏</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>平昌县开展2024年计划生育奖特扶县级复查工作</t>
+          <t>县水利局：“五个责任人”携手护航水库安全</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2024-04-03</t>
+          <t>2024-05-06</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>平昌县卫生健康局</t>
+          <t>平昌县水利局</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>李治宏</t>
+          <t>李怀明</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>平昌县水环境质量持续改善</t>
+          <t>平昌县：“以节聚势”掀起五一促销新浪潮</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2024-04-02</t>
+          <t>2024-05-06</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>巴中市平昌生态环境局</t>
+          <t>平昌县商务局</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>孙丽</t>
+          <t>唐立</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>县水利局：高效节水保“春灌”  精准服务迎“春耕”</t>
+          <t>县统计局“四强化”积极推进“四上”调查单位月度入统工作</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2024-04-02</t>
+          <t>2024-05-06</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>平昌县水利局</t>
+          <t>平昌县统计局</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>李宣</t>
+          <t>刘华平</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>县公安局扎实开展节前社会治安统一清查行动</t>
+          <t>县住建局：环境整治“动”起来 城市颜值“提”上来</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2024-04-02</t>
+          <t>2024-05-06</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>平昌县公安局</t>
+          <t>平昌县住房和城乡建设局</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>平昌县公安局</t>
+          <t>苏灿</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>县司法局：借力信息化，增添服务社会转型发展新动能</t>
+          <t>单位</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2024-04-02</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>平昌县司法局</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>邢文军</t>
+          <t>数量</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>平昌县开展2024年“世界野生动植物宣传月”暨“爱鸟周”宣传活动</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>2024-04-02</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>平昌县林业局</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>谢权  杨洋</t>
-        </is>
+          <t>平昌县卫生健康局</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>县水利局：提高站位  锚定目标  善作善成  全面推动水利项目建设再提质再提速</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>2024-04-01</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
           <t>平昌县水利局</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>于丹梅</t>
-        </is>
+      <c r="B55" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>平昌县市场监管局：“四查四看”开展成品油价格专项执法检查</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>2024-04-01</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>平昌县市场监督管理局</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>平昌县市场监督管理局</t>
-        </is>
+          <t>平昌县行政审批和数据局</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>单位</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>数量</t>
-        </is>
+          <t>平昌县人力资源和社会保障局</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>平昌县农业农村局</t>
+          <t>平昌县退役军人事务局</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>平昌县公共资源交易服务中心</t>
+          <t>平昌县交通运输局</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>平昌县综合行政执法局</t>
+          <t>平昌县招商局</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>平昌县市场监督管理局</t>
+          <t>平昌县党史办</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>平昌县司法局</t>
+          <t>平昌县教育科技局</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>平昌县卫生健康局</t>
+          <t>平昌县市场监督管理局</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>平昌县交通运输局</t>
+          <t>平昌县审计局</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>平昌县自然资源和规划局</t>
+          <t>平昌县商务局</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>县水利局</t>
+          <t>平昌县林业局</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>平昌县水利局</t>
+          <t>平昌县民政局</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>平昌县党史办</t>
+          <t>平昌县统计局</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>平昌县财政局</t>
+          <t>平昌县医疗保障局</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -1784,37 +1733,37 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>巴中市平昌生态环境局</t>
+          <t>平昌县司法局</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>平昌县统计局</t>
+          <t>平昌县供销合作社联合社</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>平昌县林业局</t>
+          <t>平昌县公安局</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>平昌县教育科技和体育局</t>
+          <t>平昌县示范幼儿园</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -1824,7 +1773,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>平昌县民政局</t>
+          <t>平昌县粮食和物资储备中心</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -1834,10 +1783,30 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>平昌县公安局</t>
+          <t>平昌县自然资源和规划局</t>
         </is>
       </c>
       <c r="B75" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>平昌县综合行政执法局</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>平昌县住房和城乡建设局</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
         <v>1</v>
       </c>
     </row>
